--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P22_trail13 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P22_trail13 Features.xlsx
@@ -4593,7 +4593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4604,29 +4604,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="18" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="21" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="21" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4647,115 +4645,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4772,72 +4760,66 @@
         <v>2.942136066906096e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-3.350792844457783</v>
+        <v>1.918761868843323e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>12.13249892447714</v>
+        <v>7.970247798322017e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.918761868843323e-07</v>
+        <v>0.09775930038298025</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7.970247798322017e-07</v>
+        <v>0.2897452046554911</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.09775930038298025</v>
+        <v>0.09330081737881991</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2897452046554911</v>
+        <v>1.926366349993247</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.09330081737881991</v>
+        <v>3.546350652796037</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.958154198136604</v>
+        <v>6.542399956656988</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.546350652796037</v>
+        <v>9.322699319633214e-19</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>6.542399956656988</v>
+        <v>57861528254.90748</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>9.322699319633214e-19</v>
+        <v>2.078192575883471e-09</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>57861528254.90748</v>
+        <v>3121.199133716103</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.078192575883471e-09</v>
+        <v>7.687354214741211e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>3121.199133716103</v>
+        <v>8.848457733158144</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>7.687354214741211e-05</v>
+        <v>1.29435098096709</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.848457733158144</v>
+        <v>0.006018829684274353</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.29435098096709</v>
+        <v>5.529352419280938</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.006018829684274353</v>
+        <v>0.9572340491333911</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>5.529352419280938</v>
+        <v>0.8082743818755529</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9572340491333911</v>
+        <v>366</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.8082743818755529</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>366</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>7.245259825460884</v>
       </c>
     </row>
@@ -4852,72 +4834,66 @@
         <v>2.228179436108108e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-3.143321255342697</v>
+        <v>1.457562241300369e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>11.16124830229491</v>
+        <v>7.994899646040959e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.457562241300369e-07</v>
+        <v>0.09414533029223585</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>7.994899646040959e-07</v>
+        <v>0.2865188113971025</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.09414533029223585</v>
+        <v>0.09075226155194106</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2865188113971025</v>
+        <v>1.928289548883943</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.09075226155194106</v>
+        <v>3.123864827633952</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.960371445770563</v>
+        <v>6.521139762045759</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>3.123864827633952</v>
+        <v>9.383586065948475e-19</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>6.521139762045759</v>
+        <v>57149634269.65724</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>9.383586065948475e-19</v>
+        <v>2.103640218620369e-09</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>57149634269.65724</v>
+        <v>3064.754932009239</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.103640218620369e-09</v>
+        <v>6.751609161715324e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>3064.754932009239</v>
+        <v>8.687860954941437</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>6.751609161715324e-05</v>
+        <v>1.453725528425284</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.687860954941437</v>
+        <v>0.005096042216148794</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.453725528425284</v>
+        <v>6.099434753824284</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.005096042216148794</v>
+        <v>0.9592810525293568</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>6.099434753824284</v>
+        <v>0.8022341804351479</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9592810525293568</v>
+        <v>364</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.8022341804351479</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>364</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>9.074075633306272</v>
       </c>
     </row>
@@ -4932,72 +4908,66 @@
         <v>1.708410673806934e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-2.792780626985099</v>
+        <v>1.114111393913577e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>9.546046932068441</v>
+        <v>8.012816399338809e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.114111393913577e-07</v>
+        <v>0.08882681090085072</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>8.012816399338809e-07</v>
+        <v>0.2808197588220951</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.08882681090085072</v>
+        <v>0.08655524630350976</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2808197588220951</v>
+        <v>1.924319370328948</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.08655524630350976</v>
+        <v>3.109485022555249</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.958659905815751</v>
+        <v>6.518340248480641</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3.109485022555249</v>
+        <v>9.391647970243335e-19</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>6.518340248480641</v>
+        <v>56622669297.99145</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>9.391647970243335e-19</v>
+        <v>2.121935495122861e-09</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>56622669297.99145</v>
+        <v>3011.081311181733</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.121935495122861e-09</v>
+        <v>4.661050581919832e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>3011.081311181733</v>
+        <v>10.2704774916492</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>4.661050581919832e-05</v>
+        <v>1.224183339004073</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.2704774916492</v>
+        <v>0.004916602370699454</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.224183339004073</v>
+        <v>6.832832379146863</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.004916602370699454</v>
+        <v>0.9589508761131866</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>6.832832379146863</v>
+        <v>0.802576261502156</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9589508761131866</v>
+        <v>364</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.802576261502156</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>364</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>11.95623958562519</v>
       </c>
     </row>
@@ -5012,72 +4982,66 @@
         <v>1.338492465253635e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-2.255288984960037</v>
+        <v>8.558493613345011e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>7.156014617791094</v>
+        <v>8.025692765817856e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>8.558493613345011e-08</v>
+        <v>0.08080418942507768</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>8.025692765817856e-07</v>
+        <v>0.2687024570494999</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.08080418942507768</v>
+        <v>0.07855084756902278</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2687024570494999</v>
+        <v>1.918986105768327</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.07855084756902278</v>
+        <v>3.096520083841068</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.952348871727498</v>
+        <v>6.321725355434079</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>3.096520083841068</v>
+        <v>9.984920460956608e-19</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>6.321725355434079</v>
+        <v>55105197957.204</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>9.984920460956608e-19</v>
+        <v>2.184890701343085e-09</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>55105197957.204</v>
+        <v>3032.003814950343</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.184890701343085e-09</v>
+        <v>3.21819220810252e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>3032.003814950343</v>
+        <v>12.44898250601734</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>3.21819220810252e-05</v>
+        <v>1.03049936287012</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>12.44898250601734</v>
+        <v>0.004987463062371371</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.03049936287012</v>
+        <v>7.333423404970427</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.004987463062371371</v>
+        <v>0.9599314480549194</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>7.333423404970427</v>
+        <v>0.833082447458952</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9599314480549194</v>
+        <v>374</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.833082447458952</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>374</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>14.2945333721137</v>
       </c>
     </row>
@@ -5454,7 +5418,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.407984233724672</v>
+        <v>1.401680795290447</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.237411455330645</v>
@@ -5543,7 +5507,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.402464432667173</v>
+        <v>1.387896525342896</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.058678506278226</v>
@@ -5632,7 +5596,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.421820377925368</v>
+        <v>1.407195254961749</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.305809000469215</v>
@@ -5721,7 +5685,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.438225424715614</v>
+        <v>1.420561051418227</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.331320770663693</v>
@@ -5810,7 +5774,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.427812931241386</v>
+        <v>1.410387417959841</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.35412611445271</v>
@@ -5899,7 +5863,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.40800559419781</v>
+        <v>1.393854007383195</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.243523918414595</v>
@@ -5988,7 +5952,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.42194982765084</v>
+        <v>1.406006093731922</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.317793995598701</v>
@@ -6077,7 +6041,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.408292678424342</v>
+        <v>1.392928420447785</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.373386312202947</v>
@@ -6166,7 +6130,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.384234623599523</v>
+        <v>1.372084875625264</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.312220316335414</v>
@@ -6255,7 +6219,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.368766955294583</v>
+        <v>1.357308919095438</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.347790521328474</v>
@@ -6344,7 +6308,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.357525593046266</v>
+        <v>1.343462511180187</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.374626617050137</v>
@@ -6433,7 +6397,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.355377358117377</v>
+        <v>1.341950875118552</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.407658793856681</v>
@@ -6522,7 +6486,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.348676752458148</v>
+        <v>1.331578564275115</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.358264769620069</v>
@@ -6611,7 +6575,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.339375343063857</v>
+        <v>1.322187229488964</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.421140969018148</v>
@@ -6700,7 +6664,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.353833345684083</v>
+        <v>1.334513623335678</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.535404441780289</v>
@@ -6789,7 +6753,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.354979125217738</v>
+        <v>1.33316733636606</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.247933573593084</v>
@@ -6878,7 +6842,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.36754002017516</v>
+        <v>1.347421372669981</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.359155901976403</v>
@@ -6967,7 +6931,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.365527391650458</v>
+        <v>1.345149604089462</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.497546119720198</v>
@@ -7056,7 +7020,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.372576863653767</v>
+        <v>1.344686436857822</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.559052209799986</v>
@@ -7145,7 +7109,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.379869623692586</v>
+        <v>1.354429382331959</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.316993027190098</v>
@@ -7234,7 +7198,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.397879415928492</v>
+        <v>1.367242327827646</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.339193071218047</v>
@@ -7323,7 +7287,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.41737624176695</v>
+        <v>1.381838859955361</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.429876638291336</v>
@@ -7412,7 +7376,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.430181244522581</v>
+        <v>1.398825655287684</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.322395103335062</v>
@@ -7501,7 +7465,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.461177972968204</v>
+        <v>1.428541702034818</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.348586270112929</v>
@@ -7590,7 +7554,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.500107257732148</v>
+        <v>1.462254779114593</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.382201131087554</v>
@@ -7679,7 +7643,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.532651230547293</v>
+        <v>1.487082822318049</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.584765082089286</v>
@@ -7768,7 +7732,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.497885461998528</v>
+        <v>1.468479134235276</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.338704524349636</v>
@@ -7857,7 +7821,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.519169274325811</v>
+        <v>1.489693935151389</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.328839286500962</v>
@@ -7946,7 +7910,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.553749406557115</v>
+        <v>1.526889536836312</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.31779988857481</v>
@@ -8035,7 +7999,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.577759282894678</v>
+        <v>1.548920247456978</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.379433324686983</v>
@@ -8124,7 +8088,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.593025874175249</v>
+        <v>1.564024989056859</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.424823375660379</v>
@@ -8213,7 +8177,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.562774232097534</v>
+        <v>1.539438555367883</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.465542638824042</v>
@@ -8302,7 +8266,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.517166425202548</v>
+        <v>1.502434409387497</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.476033573011636</v>
@@ -8391,7 +8355,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.540688810001741</v>
+        <v>1.5239725535432</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.194338724923253</v>
@@ -8480,7 +8444,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.543357723352989</v>
+        <v>1.524348088676437</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.51318995629486</v>
@@ -8569,7 +8533,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.536330318516696</v>
+        <v>1.522389152663353</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.414089262127584</v>
@@ -8658,7 +8622,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.509174532406881</v>
+        <v>1.490044265483027</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.393054099109793</v>
@@ -8747,7 +8711,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.503131711886869</v>
+        <v>1.482814688483192</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.408600324826494</v>
@@ -8836,7 +8800,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.508399460466734</v>
+        <v>1.484648182157187</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.30277573905137</v>
@@ -8925,7 +8889,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.505834080378901</v>
+        <v>1.480845768681868</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.390314593878486</v>
@@ -9014,7 +8978,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.519224573351489</v>
+        <v>1.49266447885895</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.485468683293675</v>
@@ -9103,7 +9067,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.542382068029119</v>
+        <v>1.510368415149255</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.273910411243355</v>
@@ -9192,7 +9156,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.549663414273162</v>
+        <v>1.510609210652803</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.358315943367401</v>
@@ -9281,7 +9245,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.526442956764615</v>
+        <v>1.488922877581773</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.272094912953789</v>
@@ -9370,7 +9334,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.496841231553914</v>
+        <v>1.461983731243731</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.260968390834825</v>
@@ -9459,7 +9423,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.461935449115527</v>
+        <v>1.42713136603077</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.310420287787497</v>
@@ -9548,7 +9512,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.473898193958278</v>
+        <v>1.437501360463508</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.249335543765003</v>
@@ -9637,7 +9601,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.491861415017969</v>
+        <v>1.452413454394187</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.345082609857896</v>
@@ -9726,7 +9690,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.498564670294231</v>
+        <v>1.465211915085469</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.303311057697677</v>
@@ -10012,7 +9976,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.495859968978791</v>
+        <v>1.49588196683801</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.621094822138923</v>
@@ -10101,7 +10065,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.514847826855619</v>
+        <v>1.514033347742752</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.614515020968073</v>
@@ -10190,7 +10154,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.521213252102392</v>
+        <v>1.523278392336328</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.520618302403311</v>
@@ -10279,7 +10243,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.560544413486825</v>
+        <v>1.559182229141944</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.854085081692184</v>
@@ -10368,7 +10332,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.56350981895331</v>
+        <v>1.560807211275472</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.868784960384254</v>
@@ -10457,7 +10421,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.556225823607722</v>
+        <v>1.558227784997794</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.832778440229628</v>
@@ -10546,7 +10510,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.569153774125325</v>
+        <v>1.577634459824952</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.727825631601181</v>
@@ -10635,7 +10599,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.591414782797717</v>
+        <v>1.597808790400533</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.814048917781337</v>
@@ -10724,7 +10688,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.599283501037006</v>
+        <v>1.606721594241228</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.999065462783586</v>
@@ -10813,7 +10777,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.60629207858552</v>
+        <v>1.615515053201252</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.615578709726142</v>
@@ -10902,7 +10866,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.534489246192591</v>
+        <v>1.548482709059181</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.930674725408184</v>
@@ -10991,7 +10955,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.511569753947641</v>
+        <v>1.528578896566892</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.963583671009991</v>
@@ -11080,7 +11044,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.503322132170584</v>
+        <v>1.526470277840369</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.961737272817685</v>
@@ -11169,7 +11133,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.457015405148399</v>
+        <v>1.481532361663952</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.950882091809333</v>
@@ -11258,7 +11222,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.421699323330936</v>
+        <v>1.446147074408527</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.040803337938005</v>
@@ -11347,7 +11311,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.42341677190014</v>
+        <v>1.447826242289277</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.955423117586169</v>
@@ -11436,7 +11400,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.423570964771112</v>
+        <v>1.447784328601827</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.988529160452605</v>
@@ -11525,7 +11489,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.423889741316236</v>
+        <v>1.447145955722291</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.979333776551689</v>
@@ -11614,7 +11578,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.418160853674169</v>
+        <v>1.440422585379348</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.971202671321693</v>
@@ -11703,7 +11667,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.428170050775105</v>
+        <v>1.45189075601736</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.956644639621635</v>
@@ -11792,7 +11756,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.433167638563415</v>
+        <v>1.454396277212042</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.998985610156979</v>
@@ -11881,7 +11845,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.426325836375917</v>
+        <v>1.445413886533109</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.957021896555014</v>
@@ -11970,7 +11934,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.420436708419133</v>
+        <v>1.440756361387874</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.978659066412499</v>
@@ -12059,7 +12023,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.420727759765442</v>
+        <v>1.440789481622892</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.951307845534924</v>
@@ -12148,7 +12112,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.437769714752993</v>
+        <v>1.456522774394861</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.866660095526519</v>
@@ -12237,7 +12201,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.467390253878838</v>
+        <v>1.491977727655475</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.015694085181345</v>
@@ -12326,7 +12290,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.500373417524431</v>
+        <v>1.519210590464822</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.930614233260843</v>
@@ -12415,7 +12379,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.52308812315856</v>
+        <v>1.541616228862595</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.93162047478589</v>
@@ -12504,7 +12468,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.612627170357576</v>
+        <v>1.625624797325278</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.874825164526875</v>
@@ -12593,7 +12557,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.74835559020709</v>
+        <v>1.749362493280332</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.06206483084253</v>
@@ -12682,7 +12646,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.754260245412832</v>
+        <v>1.756144970621767</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.458046479658653</v>
@@ -12771,7 +12735,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.745218482979122</v>
+        <v>1.752320714903835</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.971649131723951</v>
@@ -12860,7 +12824,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.701412674189252</v>
+        <v>1.71063637702547</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.885844110549963</v>
@@ -12949,7 +12913,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.659439239210269</v>
+        <v>1.679021903633886</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.716918396534355</v>
@@ -13038,7 +13002,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.656509666543631</v>
+        <v>1.676662318329547</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.74563198214269</v>
@@ -13127,7 +13091,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.644042546508182</v>
+        <v>1.665633865897184</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.756154744463438</v>
@@ -13216,7 +13180,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.643448526699623</v>
+        <v>1.667347845271498</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.929439862990032</v>
@@ -13305,7 +13269,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.638392195675057</v>
+        <v>1.65763437978139</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.780732104953212</v>
@@ -13394,7 +13358,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.640622875219373</v>
+        <v>1.661519705499566</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.729432229496683</v>
@@ -13483,7 +13447,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.638426855216484</v>
+        <v>1.659078794485638</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.879117809471982</v>
@@ -13572,7 +13536,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.639184215642003</v>
+        <v>1.662533808929817</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.75581762474446</v>
@@ -13661,7 +13625,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.622023244320784</v>
+        <v>1.650855578264828</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.965072775035846</v>
@@ -13750,7 +13714,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.618438468950994</v>
+        <v>1.647747319719526</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.030940101026603</v>
@@ -13839,7 +13803,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.615461513982338</v>
+        <v>1.643094506222694</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.875389934959802</v>
@@ -13928,7 +13892,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.617768206737191</v>
+        <v>1.635842518732852</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.966201593839962</v>
@@ -14017,7 +13981,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.617434777182333</v>
+        <v>1.629724271495796</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.9090520498503</v>
@@ -14106,7 +14070,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.624895942783132</v>
+        <v>1.635233379020957</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.93134907924218</v>
@@ -14195,7 +14159,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.669622254809695</v>
+        <v>1.68105538665648</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.96939641433205</v>
@@ -14284,7 +14248,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.726076224989786</v>
+        <v>1.728848196223583</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.92876242937007</v>
@@ -14570,7 +14534,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.498953439618955</v>
+        <v>1.485638396525504</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.585552688334416</v>
@@ -14659,7 +14623,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.499392591236146</v>
+        <v>1.473732497427033</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.610408049386882</v>
@@ -14748,7 +14712,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.535479123125998</v>
+        <v>1.504853618280153</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.805782377058574</v>
@@ -14837,7 +14801,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.540413476017368</v>
+        <v>1.508557133220715</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.745435634519632</v>
@@ -14926,7 +14890,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.543703170381836</v>
+        <v>1.509071650306677</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.727621519016163</v>
@@ -15015,7 +14979,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.534684783368371</v>
+        <v>1.502578656868822</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.512586939321634</v>
@@ -15104,7 +15068,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.529089840294384</v>
+        <v>1.495989977780309</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.776592888830308</v>
@@ -15193,7 +15157,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.565636660759237</v>
+        <v>1.522163743829674</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.422097528891286</v>
@@ -15282,7 +15246,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.571164547461082</v>
+        <v>1.519467895376092</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.976446157660692</v>
@@ -15371,7 +15335,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.565018629882914</v>
+        <v>1.512034643416717</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.84330395506078</v>
@@ -15460,7 +15424,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.566488770106199</v>
+        <v>1.515260649879601</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.018536083608207</v>
@@ -15549,7 +15513,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.549428532125639</v>
+        <v>1.502737984485534</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.468759892435925</v>
@@ -15638,7 +15602,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.542484492235998</v>
+        <v>1.496815671496863</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.697247350647234</v>
@@ -15727,7 +15691,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.544556172628057</v>
+        <v>1.492405065008649</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.501337396416161</v>
@@ -15816,7 +15780,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.547822495089252</v>
+        <v>1.501442007919424</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.704360391781649</v>
@@ -15905,7 +15869,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.518879616737882</v>
+        <v>1.479667314602513</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.50599731852012</v>
@@ -15994,7 +15958,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.524180508505278</v>
+        <v>1.496458538030774</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.653357247181383</v>
@@ -16083,7 +16047,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.525477483050829</v>
+        <v>1.502977204688313</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.69369777842365</v>
@@ -16172,7 +16136,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.543422731488097</v>
+        <v>1.515070542933262</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.888829600560101</v>
@@ -16261,7 +16225,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.535577845620702</v>
+        <v>1.508550909678506</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.60842087155589</v>
@@ -16350,7 +16314,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.524741942699794</v>
+        <v>1.496335152138328</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.895797361843524</v>
@@ -16439,7 +16403,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.533394280522952</v>
+        <v>1.504240556800404</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.803203159790794</v>
@@ -16528,7 +16492,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.519918489765683</v>
+        <v>1.495136375626654</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.736238367796004</v>
@@ -16617,7 +16581,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.505981747265895</v>
+        <v>1.486301904245475</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.888011992145516</v>
@@ -16706,7 +16670,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.511641299602552</v>
+        <v>1.488913242280304</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.780940176001313</v>
@@ -16795,7 +16759,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.50864862252939</v>
+        <v>1.48641769687803</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.812825334493239</v>
@@ -16884,7 +16848,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.521572933615371</v>
+        <v>1.496264782470188</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.702256715731014</v>
@@ -16973,7 +16937,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.513043457862154</v>
+        <v>1.494218788610539</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.599416699158211</v>
@@ -17062,7 +17026,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.537746353046879</v>
+        <v>1.518139738164373</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.301276122700541</v>
@@ -17151,7 +17115,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.548593005733325</v>
+        <v>1.529146522372819</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.360082130765696</v>
@@ -17240,7 +17204,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.562155886551476</v>
+        <v>1.541611930635464</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.553686170110375</v>
@@ -17329,7 +17293,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.556135671229365</v>
+        <v>1.53562268367075</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.573891812584209</v>
@@ -17418,7 +17382,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.53724607077449</v>
+        <v>1.510691635927162</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.799529706100675</v>
@@ -17507,7 +17471,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.534283979642827</v>
+        <v>1.512335697034788</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.524829863224735</v>
@@ -17596,7 +17560,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.541082924192988</v>
+        <v>1.521258078164002</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.834402665116052</v>
@@ -17685,7 +17649,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.539834214043337</v>
+        <v>1.519558198136684</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.635399958507432</v>
@@ -17774,7 +17738,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.537450230677498</v>
+        <v>1.518256027774859</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.63366461930524</v>
@@ -17863,7 +17827,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.54080171468719</v>
+        <v>1.516595744238855</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.825531615228007</v>
@@ -17952,7 +17916,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.558523738151727</v>
+        <v>1.531613560890759</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.907739167944434</v>
@@ -18041,7 +18005,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.554239152771862</v>
+        <v>1.526773537551795</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.891078531002222</v>
@@ -18130,7 +18094,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.561043761637792</v>
+        <v>1.527711258586904</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.902148548610028</v>
@@ -18219,7 +18183,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.535839983640499</v>
+        <v>1.511197485381807</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.905760844555223</v>
@@ -18308,7 +18272,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.558980289240796</v>
+        <v>1.526128625089327</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.816133177457496</v>
@@ -18397,7 +18361,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.555449974119179</v>
+        <v>1.51869182221285</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.81761962249546</v>
@@ -18486,7 +18450,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.55943849267058</v>
+        <v>1.517614176504068</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.698504484617311</v>
@@ -18575,7 +18539,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.578469091202501</v>
+        <v>1.527529629750714</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.664561824199396</v>
@@ -18664,7 +18628,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.576390271901371</v>
+        <v>1.520620117667782</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.481848383391402</v>
@@ -18753,7 +18717,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.595752093502094</v>
+        <v>1.541310616565064</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.867995865767132</v>
@@ -18842,7 +18806,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.597951702569893</v>
+        <v>1.546256483466657</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.860900869053027</v>
@@ -19128,7 +19092,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.583958469232022</v>
+        <v>1.552962719307206</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.233967277128238</v>
@@ -19217,7 +19181,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.57311538074173</v>
+        <v>1.543778118595666</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.062407932065212</v>
@@ -19306,7 +19270,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.583816493072592</v>
+        <v>1.547260334627685</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.735919940787028</v>
@@ -19395,7 +19359,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.588955718431386</v>
+        <v>1.554363012383964</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.825405688052227</v>
@@ -19484,7 +19448,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.592001266065583</v>
+        <v>1.556218251962753</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.316781587948932</v>
@@ -19573,7 +19537,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.591083336299061</v>
+        <v>1.555278693985464</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.361381122868322</v>
@@ -19662,7 +19626,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.592620339662876</v>
+        <v>1.549499024890652</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.788613316049653</v>
@@ -19751,7 +19715,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.584994806639084</v>
+        <v>1.541690291324752</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.050695129350955</v>
@@ -19840,7 +19804,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.576637035177449</v>
+        <v>1.529484341594938</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.96411243812363</v>
@@ -19929,7 +19893,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.586196763914028</v>
+        <v>1.535963381362797</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.087158765615083</v>
@@ -20018,7 +19982,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.560220898254833</v>
+        <v>1.51481364428497</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.519420725213076</v>
@@ -20107,7 +20071,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.5533201782341</v>
+        <v>1.513496329062352</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.672636102263677</v>
@@ -20196,7 +20160,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.555760530086449</v>
+        <v>1.505716372534204</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.616891721760817</v>
@@ -20285,7 +20249,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.530246897377012</v>
+        <v>1.4798429660511</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.644077023840215</v>
@@ -20374,7 +20338,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.516086348081887</v>
+        <v>1.468333185055871</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.716545083402672</v>
@@ -20463,7 +20427,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.520322639510745</v>
+        <v>1.461193541995052</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.739299054455742</v>
@@ -20552,7 +20516,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.535982321520315</v>
+        <v>1.469253328975263</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.661880866787615</v>
@@ -20641,7 +20605,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.535918996842824</v>
+        <v>1.469261134054321</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.603384877314254</v>
@@ -20730,7 +20694,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.534985778168594</v>
+        <v>1.458448324820371</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.467528027942854</v>
@@ -20819,7 +20783,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.533017666816286</v>
+        <v>1.455951468983978</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.743970828221219</v>
@@ -20908,7 +20872,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.538684608113785</v>
+        <v>1.456533158779044</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.668584465326235</v>
@@ -20997,7 +20961,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.541284559304631</v>
+        <v>1.458655989327898</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.545498539281874</v>
@@ -21086,7 +21050,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.543984034483999</v>
+        <v>1.46079809202938</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.646480776476059</v>
@@ -21175,7 +21139,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.555589566311128</v>
+        <v>1.471454801477284</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.737414377760684</v>
@@ -21264,7 +21228,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.559645404382917</v>
+        <v>1.474601952087156</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.52799771902035</v>
@@ -21353,7 +21317,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.589157103477216</v>
+        <v>1.492741904287759</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.853619876406604</v>
@@ -21442,7 +21406,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.599899297581017</v>
+        <v>1.495559582510972</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.950403842591674</v>
@@ -21531,7 +21495,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.610909293803554</v>
+        <v>1.506874726956998</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.572109369899598</v>
@@ -21620,7 +21584,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.64248274388142</v>
+        <v>1.526683064550905</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.745185557219573</v>
@@ -21709,7 +21673,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.676830091777022</v>
+        <v>1.553935438512009</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.391050721497364</v>
@@ -21798,7 +21762,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.682312193418921</v>
+        <v>1.572918862727784</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.995040778537326</v>
@@ -21887,7 +21851,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.669657560079226</v>
+        <v>1.572163329787711</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.114737408518288</v>
@@ -21976,7 +21940,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.663447987356772</v>
+        <v>1.565897588779447</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.452972801060784</v>
@@ -22065,7 +22029,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.671738559818839</v>
+        <v>1.576514716526209</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.745616287633732</v>
@@ -22154,7 +22118,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.674393481317251</v>
+        <v>1.582893534813508</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.336630933307654</v>
@@ -22243,7 +22207,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.666224135063986</v>
+        <v>1.57830646900993</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.186254857867775</v>
@@ -22332,7 +22296,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.661657834693445</v>
+        <v>1.578962707043644</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.584072256335267</v>
@@ -22421,7 +22385,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.667271898026692</v>
+        <v>1.579563866751786</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.169620938511402</v>
@@ -22510,7 +22474,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.673052339378617</v>
+        <v>1.574182459937532</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.665760990955503</v>
@@ -22599,7 +22563,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.668578729602676</v>
+        <v>1.571303922723775</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.333255393986175</v>
@@ -22688,7 +22652,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.664749382296704</v>
+        <v>1.569640199296765</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.435352802260437</v>
@@ -22777,7 +22741,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.666282638198343</v>
+        <v>1.574896230685582</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.322115870341103</v>
@@ -22866,7 +22830,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.661963936163817</v>
+        <v>1.571842988545293</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.229306607582467</v>
@@ -22955,7 +22919,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.661879330869043</v>
+        <v>1.568877616772807</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.439375219660454</v>
@@ -23044,7 +23008,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.65575954580956</v>
+        <v>1.552691002252541</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.32546561713511</v>
@@ -23133,7 +23097,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.654776008712021</v>
+        <v>1.54577262846526</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.395743491435947</v>
@@ -23222,7 +23186,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.660459541196896</v>
+        <v>1.543533526362302</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.071114598517293</v>
@@ -23311,7 +23275,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.670879805752167</v>
+        <v>1.556576848133792</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.198565016475721</v>
@@ -23400,7 +23364,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.661179411467876</v>
+        <v>1.551285880142147</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.589369781457237</v>
@@ -23686,7 +23650,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.509971631352465</v>
+        <v>1.486060690625737</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.918050385162699</v>
@@ -23775,7 +23739,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.507880949276107</v>
+        <v>1.481902551929017</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.503676269032045</v>
@@ -23864,7 +23828,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.524671408347565</v>
+        <v>1.500446920470756</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.74858839563157</v>
@@ -23953,7 +23917,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.528079452159192</v>
+        <v>1.512175730445095</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.677474992034658</v>
@@ -24042,7 +24006,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.51346906893668</v>
+        <v>1.50137660493741</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.553597109189349</v>
@@ -24131,7 +24095,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.517006188057793</v>
+        <v>1.509064656517941</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.405300267331669</v>
@@ -24220,7 +24184,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.531021485108002</v>
+        <v>1.526334194204234</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.63209875508198</v>
@@ -24309,7 +24273,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.549376364897722</v>
+        <v>1.543993179147429</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.756576416902108</v>
@@ -24398,7 +24362,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.547835381634505</v>
+        <v>1.540614137682447</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.716834800082022</v>
@@ -24487,7 +24451,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.530786501643586</v>
+        <v>1.534450358786072</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.866518283544898</v>
@@ -24576,7 +24540,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.52263239401855</v>
+        <v>1.528289798974095</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.843323537215953</v>
@@ -24665,7 +24629,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.531480453541274</v>
+        <v>1.539604816685012</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.881784726151756</v>
@@ -24754,7 +24718,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.541063313547148</v>
+        <v>1.545898673087718</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.750431691675647</v>
@@ -24843,7 +24807,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.504701074671219</v>
+        <v>1.512823967606869</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.367300617403179</v>
@@ -24932,7 +24896,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.509318949833855</v>
+        <v>1.518097568703032</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.549188817596107</v>
@@ -25021,7 +24985,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.521143948695719</v>
+        <v>1.523348168193773</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.496327534319704</v>
@@ -25110,7 +25074,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.534602267586865</v>
+        <v>1.536806658793552</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.427906845885901</v>
@@ -25199,7 +25163,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.539561830902304</v>
+        <v>1.540631162357481</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.519150328176351</v>
@@ -25288,7 +25252,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.535605481527671</v>
+        <v>1.535216079803279</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.504715878886621</v>
@@ -25377,7 +25341,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.539929328253873</v>
+        <v>1.53564626989136</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.508678470039334</v>
@@ -25466,7 +25430,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.550603404767276</v>
+        <v>1.543302890471737</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.437541710776759</v>
@@ -25555,7 +25519,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.554313571670502</v>
+        <v>1.548747308993588</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.449892495821813</v>
@@ -25644,7 +25608,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.545059845784691</v>
+        <v>1.541151093802861</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.392259067724111</v>
@@ -25733,7 +25697,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.561210638674218</v>
+        <v>1.55607802981678</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.451925681860163</v>
@@ -25822,7 +25786,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.584941867824953</v>
+        <v>1.574368377235122</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.341293164113873</v>
@@ -25911,7 +25875,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.59651456447212</v>
+        <v>1.57863897660051</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.268804703453771</v>
@@ -26000,7 +25964,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.597544502007281</v>
+        <v>1.580189706111893</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.283777691924746</v>
@@ -26089,7 +26053,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.613470520722016</v>
+        <v>1.595451654321683</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.098251363013302</v>
@@ -26178,7 +26142,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.672724325152767</v>
+        <v>1.647194110683817</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.743281232325609</v>
@@ -26267,7 +26231,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.709523556656776</v>
+        <v>1.678775628165764</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.919684520001326</v>
@@ -26356,7 +26320,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.726116051401308</v>
+        <v>1.697239040710565</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.264534863325163</v>
@@ -26445,7 +26409,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.715122531306749</v>
+        <v>1.695984412785247</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.837347366066771</v>
@@ -26534,7 +26498,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.673217174773692</v>
+        <v>1.648223754478602</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.776340513922424</v>
@@ -26623,7 +26587,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.694817334310365</v>
+        <v>1.663958996912706</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.200240093647548</v>
@@ -26712,7 +26676,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.686229552064224</v>
+        <v>1.666937263966507</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.23173569668124</v>
@@ -26801,7 +26765,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.679831211018894</v>
+        <v>1.659138808151734</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.279739778479752</v>
@@ -26890,7 +26854,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.670288728270896</v>
+        <v>1.650321004523349</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.177025063096414</v>
@@ -26979,7 +26943,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.65889846541613</v>
+        <v>1.640992218909999</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.171740752844568</v>
@@ -27068,7 +27032,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.661074158685921</v>
+        <v>1.644006783112247</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.324455985999786</v>
@@ -27157,7 +27121,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.657597033294798</v>
+        <v>1.640861811281135</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.18008819023722</v>
@@ -27246,7 +27210,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.673592864529725</v>
+        <v>1.660747826561956</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.133357077681461</v>
@@ -27335,7 +27299,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.677920890974983</v>
+        <v>1.669019473381502</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.172649009673203</v>
@@ -27424,7 +27388,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.678174073480624</v>
+        <v>1.669975032260586</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.802177812495321</v>
@@ -27513,7 +27477,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.675104343037186</v>
+        <v>1.653709244866744</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.968489171996075</v>
@@ -27602,7 +27566,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.674294919556551</v>
+        <v>1.650479930554643</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.911269841254147</v>
@@ -27691,7 +27655,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.669134670388787</v>
+        <v>1.644925704632717</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.250797554098651</v>
@@ -27780,7 +27744,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.681391489330099</v>
+        <v>1.651610675412634</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.609114982663339</v>
@@ -27869,7 +27833,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.710477731246766</v>
+        <v>1.690335474578819</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.099270164927209</v>
@@ -27958,7 +27922,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.707125856589178</v>
+        <v>1.690848884327714</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.890647117004107</v>
@@ -28244,7 +28208,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.319037787539771</v>
+        <v>1.309732039368674</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.210127388551634</v>
@@ -28333,7 +28297,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.317757202483008</v>
+        <v>1.302690608280315</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.968565681046921</v>
@@ -28422,7 +28386,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.328678315690021</v>
+        <v>1.315378131830256</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.247184918812177</v>
@@ -28511,7 +28475,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.335751092777675</v>
+        <v>1.320147463883386</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.065285243963129</v>
@@ -28600,7 +28564,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.310187449467453</v>
+        <v>1.299364291046063</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.998174525166536</v>
@@ -28689,7 +28653,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.320295181635819</v>
+        <v>1.311079848468911</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.03509899021286</v>
@@ -28778,7 +28742,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.315418974656632</v>
+        <v>1.30576866942625</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.10320400374099</v>
@@ -28867,7 +28831,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.314082682281186</v>
+        <v>1.306021034504255</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.189484134613477</v>
@@ -28956,7 +28920,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.291732491574062</v>
+        <v>1.282348393506154</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.206153762331976</v>
@@ -29045,7 +29009,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.278156258733821</v>
+        <v>1.273059379065702</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.260361552760715</v>
@@ -29134,7 +29098,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.268656500773599</v>
+        <v>1.260566333663093</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.187449163668913</v>
@@ -29223,7 +29187,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.277137196061608</v>
+        <v>1.270813699133913</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.252107562321806</v>
@@ -29312,7 +29276,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.275722952501676</v>
+        <v>1.264551114401459</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.256369212743286</v>
@@ -29401,7 +29365,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.263758146386267</v>
+        <v>1.250642022306856</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.320031810686889</v>
@@ -29490,7 +29454,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.279006159900727</v>
+        <v>1.265731331564834</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.405057441101973</v>
@@ -29579,7 +29543,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.283868117922583</v>
+        <v>1.267108939349036</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.28859380393561</v>
@@ -29668,7 +29632,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.298096630460887</v>
+        <v>1.278224774403642</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.324204921956445</v>
@@ -29757,7 +29721,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.302247423119214</v>
+        <v>1.281753587903151</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.359670470458617</v>
@@ -29846,7 +29810,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.305067137618342</v>
+        <v>1.279928701126074</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.339763437599746</v>
@@ -29935,7 +29899,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.323645214068325</v>
+        <v>1.294887344357926</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.250955962555271</v>
@@ -30024,7 +29988,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.333523520280344</v>
+        <v>1.302610388673003</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.153748611649029</v>
@@ -30113,7 +30077,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.357733817771043</v>
+        <v>1.322421712027314</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.312706171337032</v>
@@ -30202,7 +30166,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.359696433254789</v>
+        <v>1.325340470061412</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.17970364929279</v>
@@ -30291,7 +30255,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.387931520809659</v>
+        <v>1.350669169761844</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.265482205701227</v>
@@ -30380,7 +30344,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.416606835508921</v>
+        <v>1.371681338801037</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.152142697782607</v>
@@ -30469,7 +30433,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.446286823338595</v>
+        <v>1.38879292199353</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.164135075812824</v>
@@ -30558,7 +30522,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.422841008954582</v>
+        <v>1.374358022945966</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.135364193812837</v>
@@ -30647,7 +30611,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.453792767577057</v>
+        <v>1.404151090213075</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.99300742078124</v>
@@ -30736,7 +30700,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.503784217486594</v>
+        <v>1.442757794081943</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.080367722562027</v>
@@ -30825,7 +30789,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.533882470003353</v>
+        <v>1.466751756307225</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.101458385536792</v>
@@ -30914,7 +30878,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.533162977040685</v>
+        <v>1.474677748538947</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.207696553449157</v>
@@ -31003,7 +30967,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.498665565548145</v>
+        <v>1.452057565877674</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.196826978390801</v>
@@ -31092,7 +31056,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.434951837353138</v>
+        <v>1.397128321085205</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.152643432673979</v>
@@ -31181,7 +31145,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.471214889291958</v>
+        <v>1.428396900387754</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.070858235503495</v>
@@ -31270,7 +31234,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.467323256030893</v>
+        <v>1.429620801711146</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.258691873329238</v>
@@ -31359,7 +31323,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.479339523149559</v>
+        <v>1.434090897893097</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.293293333752944</v>
@@ -31448,7 +31412,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.453673092072779</v>
+        <v>1.408591422972213</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.298470328584154</v>
@@ -31537,7 +31501,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.443588781010217</v>
+        <v>1.402477376632777</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.315883515477009</v>
@@ -31626,7 +31590,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.450528208097063</v>
+        <v>1.405560945408094</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.302321852978229</v>
@@ -31715,7 +31679,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.445992067018721</v>
+        <v>1.399710701161241</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.218925054047102</v>
@@ -31804,7 +31768,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.467809140883344</v>
+        <v>1.423943978992835</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.058879176944488</v>
@@ -31893,7 +31857,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.471564290608461</v>
+        <v>1.433864367266471</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.22660345354249</v>
@@ -31982,7 +31946,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.468889449457012</v>
+        <v>1.434235190785924</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.198698067865954</v>
@@ -32071,7 +32035,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.470907095625864</v>
+        <v>1.43269457039386</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.215311279685982</v>
@@ -32160,7 +32124,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.451773815929586</v>
+        <v>1.415563013633394</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.189590759675348</v>
@@ -32249,7 +32213,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.43608285672866</v>
+        <v>1.396193149850349</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.301252379685588</v>
@@ -32338,7 +32302,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.460708365331096</v>
+        <v>1.419299532915591</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.081681385158008</v>
@@ -32427,7 +32391,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.503560730113088</v>
+        <v>1.461755870143766</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.285485404013989</v>
@@ -32516,7 +32480,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.503820706419402</v>
+        <v>1.464045390784827</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.235170558864798</v>
